--- a/EW_Export_TR_251127 2211.xlsx
+++ b/EW_Export_TR_251127 2211.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\transfabilog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1CA2D8-81AD-42E8-B466-09446E179BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FB4243-72E1-45C1-B95A-446C471C1C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1512" yWindow="2556" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$M$27</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -520,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1566,6 +1571,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>